--- a/数据整理/stocks/A股/深证主板/000786-北新建材.xlsx
+++ b/数据整理/stocks/A股/深证主板/000786-北新建材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3606,7 +3607,6 @@
           <t>工银核心价值混合H</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>83.62</t>
@@ -3638,7 +3638,6 @@
           <t>国融融盛龙头严选混合C</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>91.86</t>
@@ -3654,6 +3653,1276 @@
       </c>
       <c r="H46" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>384.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.0625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>221.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.7020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0441</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1880</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7877</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6096</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5660</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3656</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3627</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001047</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1625</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000786-北新建材.xlsx
+++ b/数据整理/stocks/A股/深证主板/000786-北新建材.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4928,4 +4929,1196 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>333.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.6259</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>189.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9453</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7176</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5556</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6683</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5748</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>50.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>50.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000786-北新建材.xlsx
+++ b/数据整理/stocks/A股/深证主板/000786-北新建材.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6121,4 +6122,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000786-北新建材.xlsx
+++ b/数据整理/stocks/A股/深证主板/000786-北新建材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6130,7 +6131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6141,17 +6142,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6161,14 +6182,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.14</v>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6177,14 +6220,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.74</v>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6193,14 +6258,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>45</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39.05</v>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6209,13 +6296,2049 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1988</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0518</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8270</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5370</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5225</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4715</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4209</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519971</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>52.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>37</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>36.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000786-北新建材.xlsx
+++ b/数据整理/stocks/A股/深证主板/000786-北新建材.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8237,7 +8238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8248,17 +8249,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8268,14 +8289,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.55</v>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2142</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -8284,14 +8327,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.14</v>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -8300,14 +8365,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29.74</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1223</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -8316,14 +8403,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>45</v>
-      </c>
-      <c r="D5" t="n">
-        <v>39.05</v>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9437</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -8332,13 +8441,773 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4949</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4278</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3166</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>68.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>45</v>
+      </c>
+      <c r="D6" t="n">
+        <v>39.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>37</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>36.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000786-北新建材.xlsx
+++ b/数据整理/stocks/A股/深证主板/000786-北新建材.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9090,7 +9091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9101,17 +9102,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9121,14 +9142,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.82</v>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0226</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -9137,14 +9180,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.55</v>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -9153,14 +9218,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.14</v>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6758</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -9169,14 +9256,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>32</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.74</v>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6315</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -9185,14 +9294,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>45</v>
-      </c>
-      <c r="D6" t="n">
-        <v>39.05</v>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2641</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -9201,13 +9332,1473 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519768</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008878</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安新蓝筹红利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519769</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011734</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011735</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保裕丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29.74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>45</v>
+      </c>
+      <c r="D7" t="n">
+        <v>39.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>37</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>36.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000786-北新建材.xlsx
+++ b/数据整理/stocks/A股/深证主板/000786-北新建材.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>5.32</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>6.82</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>12.55</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>23.14</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>29.74</v>
+        <v>23.14</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>39.05</v>
+        <v>29.74</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>45</v>
+      </c>
+      <c r="D8" t="n">
+        <v>39.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>37</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>36.01</v>
       </c>
     </row>
@@ -600,6 +617,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7370</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6170</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5638</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4504</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012437</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012419</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008840</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>德邦大消费混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008841</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>德邦大消费混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012438</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012405</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2173,7 +2892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3025,7 +3744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5131,7 +5850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6323,7 +7042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7593,7 +8312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9345,7 +10064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000786-北新建材.xlsx
+++ b/数据整理/stocks/A股/深证主板/000786-北新建材.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>3.24</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>5.32</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>6.82</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>12.55</v>
+        <v>6.82</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>23.14</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>29.74</v>
+        <v>23.14</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>39.05</v>
+        <v>29.74</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1492 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>45</v>
+      </c>
+      <c r="D9" t="n">
+        <v>39.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>37</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>36.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>352.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.4799</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>290.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.4731</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0726</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7418</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7314</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>55.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7314</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2844</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9312</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5675</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4646</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4406</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3613</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3603</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1447</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004361</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004362</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>39.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003208</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东兴量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>100.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>39.29</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2096,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001184</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7938</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5357</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012437</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012419</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159787</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012438</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012405</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1318,7 +3537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2892,7 +5111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3744,7 +5963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5850,7 +8069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7042,7 +9261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8312,7 +10531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10062,1466 +12281,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>163402</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全趋势投资混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>352.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.63</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>12.4799</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001511</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴全新视野灵活配置定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>290.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>69.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10.4731</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519018</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富均衡增长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>62.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.0726</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004856</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发中证全指建筑材料指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>15.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>11.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.7418</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>481001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银核心价值混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>55.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.7314</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>960010</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银核心价值混合H</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>55.14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.7314</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001184</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达新常态灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>33.36</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.2844</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>360001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>光大保德信量化股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>29.75</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.9312</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159959</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银华中证央企结构调整ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>23.45</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.56</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5675</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004857</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发中证全指建筑材料指数C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>11.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4646</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>481015</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银主题策略混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16.50</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4406</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>420001</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>天弘精选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>80.53</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3613</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002770</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>安信新回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>78.48</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3603</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007202</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>天弘优质成长企业精选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>80.15</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2175</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003715</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>宝盈消费主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2083</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>420005</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>天弘周期策略混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>86.63</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1447</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002771</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信新回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>78.48</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1211</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005943</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>工银瑞信聚福混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>29.89</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0967</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002000</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>工银瑞信新生利混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>29.42</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0813</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002639</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>天弘价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>27.72</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0796</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005944</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>工银瑞信聚福混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>29.89</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0788</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001250</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>天弘新活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>26.55</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0755</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001447</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>天弘惠利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>27.97</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0718</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006167</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>德邦乐享生活混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>88.42</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0705</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004361</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>上投摩根安通回报混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>29.51</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0401</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>165508</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>信诚深度价值混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>89.24</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006168</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>德邦乐享生活混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>88.42</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>512780</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>99.08</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001829</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>北信瑞丰中国智造主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>87.35</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>004362</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>上投摩根安通回报混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>29.51</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>000270</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>建信灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>28.10</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>164811</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>750005</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>39.29</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>003208</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>东兴量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>159951</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>嘉实中关村A股ETF</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>100.06</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>002035</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>39.29</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>164825</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>